--- a/output_from_CMC /data_tables_from_CMC /stats_analysis_output_mean_CMC .xlsx
+++ b/output_from_CMC /data_tables_from_CMC /stats_analysis_output_mean_CMC .xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>-0.004821135114415607</v>
+        <v>-0.01096572107692191</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>-4.021212996654054E-05</v>
+        <v>-0.005373863255551106</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>-0.002077423568359738</v>
+        <v>-0.006727755683844141</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -612,16 +612,16 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>3.76115</v>
+        <v>3.3176</v>
       </c>
       <c r="E7">
-        <v>0.006146004857903192</v>
+        <v>0.01623499689286486</v>
       </c>
       <c r="F7">
-        <v>0.0102783094224692</v>
+        <v>0.008918256632041037</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -630,38 +630,38 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>-0.005043601143648056</v>
+        <v>0.001200114166750482</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.005531404372112873</v>
+        <v>0.01461149720357838</v>
       </c>
       <c r="M7">
-        <v>8.259083608933784E-06</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N7">
-        <v>0.0520207960511479</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>3.61995</v>
+        <v>3.1402</v>
       </c>
       <c r="E8">
-        <v>0.006975972960578949</v>
+        <v>0.03160767746408842</v>
       </c>
       <c r="F8">
-        <v>0.01018567805860087</v>
+        <v>0.02594350137250555</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>-0.004112788785125418</v>
+        <v>-0.01212929005476843</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -679,29 +679,31 @@
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.006278375664521055</v>
+        <v>0.02844690971767958</v>
       </c>
       <c r="M8">
-        <v>9.610593834297231E-06</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N8">
-        <v>0.03385954014544062</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>3.3176</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E9">
-        <v>0.01623499689286486</v>
+        <v>0.01769920740038358</v>
       </c>
       <c r="F9">
-        <v>0.008918256632041037</v>
+        <v>0.00992344144103908</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -710,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0.006526028829001374</v>
+        <v>0.0009697293800431175</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -719,29 +721,29 @@
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.01461149720357838</v>
+        <v>0.01592928666034522</v>
       </c>
       <c r="M9">
-        <v>8.460121672955298E-06</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N9">
-        <v>0.08655038452706303</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>3.1402</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E10">
-        <v>0.03160767746408842</v>
+        <v>0.020141510275078</v>
       </c>
       <c r="F10">
-        <v>0.02594350137250555</v>
+        <v>0.006662900733321421</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -750,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>0.003363970573495325</v>
+        <v>0.008908829351620118</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -759,31 +761,29 @@
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.02844690971767958</v>
+        <v>0.0181273592475702</v>
       </c>
       <c r="M10">
-        <v>0.0001277365618234034</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N10">
-        <v>0.2920534659721863</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>4.251749999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="E11">
-        <v>0.01769920740038358</v>
+        <v>0.01258446075639953</v>
       </c>
       <c r="F11">
-        <v>0.00992344144103908</v>
+        <v>0.002418610509191315</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0.006895932723523554</v>
+        <v>0.0085070354404253</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -801,29 +801,29 @@
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.01592928666034522</v>
+        <v>0.01132601468075958</v>
       </c>
       <c r="M11">
-        <v>3.558138317295404E-05</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N11">
-        <v>0.04296880909577897</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>4.087149999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="E12">
-        <v>0.020141510275078</v>
+        <v>0.02333734961585583</v>
       </c>
       <c r="F12">
-        <v>0.006662900733321421</v>
+        <v>0.008063974186506956</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>0.01288786271798753</v>
+        <v>0.00974266276136929</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -841,29 +841,29 @@
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.0181273592475702</v>
+        <v>0.02100361465427025</v>
       </c>
       <c r="M12">
-        <v>3.868543216178824E-06</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N12">
-        <v>0.0566439770081625</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
-        <v>3.9317</v>
+        <v>3.1402</v>
       </c>
       <c r="E13">
-        <v>0.01258446075639953</v>
+        <v>0.03668772996226569</v>
       </c>
       <c r="F13">
-        <v>0.002418610509191315</v>
+        <v>0.008289498438039503</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.009951411141265399</v>
+        <v>0.02271284204230358</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -881,29 +881,31 @@
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.01132601468075958</v>
+        <v>0.03301895696603913</v>
       </c>
       <c r="M13">
-        <v>3.890226306992868E-06</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N13">
-        <v>0.03632327193610326</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C14" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>3.76115</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E14">
-        <v>0.008529861871451161</v>
+        <v>0.01814182366605429</v>
       </c>
       <c r="F14">
-        <v>0.00181925973709249</v>
+        <v>0.007789969488882428</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -912,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>0.006549302731243814</v>
+        <v>0.005009068853351383</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -921,29 +923,29 @@
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.007676875684306045</v>
+        <v>0.01632764129944886</v>
       </c>
       <c r="M14">
-        <v>8.259083608933784E-06</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N14">
-        <v>0.0520207960511479</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>3.61995</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E15">
-        <v>0.009682901318229652</v>
+        <v>0.02243396317614414</v>
       </c>
       <c r="F15">
-        <v>0.002691877792491693</v>
+        <v>0.00792195118166396</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -952,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>0.006752355966436624</v>
+        <v>0.00907870643791521</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -961,29 +963,29 @@
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.008714611186406688</v>
+        <v>0.02019056685852973</v>
       </c>
       <c r="M15">
-        <v>9.610593834297231E-06</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N15">
-        <v>0.03385954014544062</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>3.3176</v>
+        <v>3.9317</v>
       </c>
       <c r="E16">
-        <v>0.02333734961585583</v>
+        <v>0.01470232071979111</v>
       </c>
       <c r="F16">
-        <v>0.008063974186506956</v>
+        <v>0.004021362799388873</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -992,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>0.01455840647989256</v>
+        <v>0.007922888305752843</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1001,29 +1003,29 @@
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.02100361465427025</v>
+        <v>0.013232088647812</v>
       </c>
       <c r="M16">
-        <v>8.460121672955298E-06</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N16">
-        <v>0.08655038452706303</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>3.1402</v>
+        <v>3.3176</v>
       </c>
       <c r="E17">
-        <v>0.03668772996226569</v>
+        <v>0.02696618128817769</v>
       </c>
       <c r="F17">
-        <v>0.008289498438039503</v>
+        <v>0.01218020971595244</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1032,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="I17">
-        <v>0.0276632671192456</v>
+        <v>0.006432120404474106</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1041,31 +1043,29 @@
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.03301895696603913</v>
+        <v>0.02426956315935992</v>
       </c>
       <c r="M17">
-        <v>0.0001277365618234034</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N17">
-        <v>0.2920534659721863</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
-        <v>4.251749999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="E18">
-        <v>0.01814182366605429</v>
+        <v>0.04424001314794899</v>
       </c>
       <c r="F18">
-        <v>0.007789969488882428</v>
+        <v>0.01348878057726228</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="I18">
-        <v>0.009661179061782434</v>
+        <v>0.0214998922403704</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1083,29 +1083,31 @@
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.01632764129944886</v>
+        <v>0.03981601183315409</v>
       </c>
       <c r="M18">
-        <v>3.558138317295404E-05</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N18">
-        <v>0.04296880909577897</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>4.087149999999999</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E19">
-        <v>0.02243396317614414</v>
+        <v>0.02972438631976247</v>
       </c>
       <c r="F19">
-        <v>0.00792195118166396</v>
+        <v>0.01493943681214058</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1114,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="I19">
-        <v>0.01380963510400405</v>
+        <v>0.00453867012745721</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1123,29 +1125,29 @@
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.02019056685852973</v>
+        <v>0.02675194768778623</v>
       </c>
       <c r="M19">
-        <v>3.868543216178824E-06</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N19">
-        <v>0.0566439770081625</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>3.9317</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E20">
-        <v>0.01470232071979111</v>
+        <v>0.02682664052645883</v>
       </c>
       <c r="F20">
-        <v>0.004021362799388873</v>
+        <v>0.01178266773731689</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1154,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>0.0103244154179631</v>
+        <v>0.006962777560812369</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1163,29 +1165,29 @@
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.013232088647812</v>
+        <v>0.02414397647381295</v>
       </c>
       <c r="M20">
-        <v>3.890226306992868E-06</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N20">
-        <v>0.03632327193610326</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>3.76115</v>
+        <v>3.9317</v>
       </c>
       <c r="E21">
-        <v>0.009375499206474408</v>
+        <v>0.01617178782034895</v>
       </c>
       <c r="F21">
-        <v>0.005180029136483657</v>
+        <v>0.003999285076279981</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -1194,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0.003736197767747793</v>
+        <v>0.009429575234299182</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1203,29 +1205,29 @@
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.008437949285826966</v>
+        <v>0.01455460903831406</v>
       </c>
       <c r="M21">
-        <v>8.259083608933784E-06</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N21">
-        <v>0.0520207960511479</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1">
-        <v>3.61995</v>
+        <v>3.3176</v>
       </c>
       <c r="E22">
-        <v>0.01250847183685328</v>
+        <v>0.02754779421025275</v>
       </c>
       <c r="F22">
-        <v>0.007698453517138792</v>
+        <v>0.009297353833245196</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1234,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0.004127457203286708</v>
+        <v>0.01187380877639331</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1243,29 +1245,29 @@
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.01125762465316795</v>
+        <v>0.02479301478922747</v>
       </c>
       <c r="M22">
-        <v>9.610593834297231E-06</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N22">
-        <v>0.03385954014544062</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
-        <v>3.3176</v>
+        <v>3.1402</v>
       </c>
       <c r="E23">
-        <v>0.02696618128817769</v>
+        <v>0.03436704952711867</v>
       </c>
       <c r="F23">
-        <v>0.01218020971595244</v>
+        <v>0.005887228993862251</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1274,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0.01370604850410041</v>
+        <v>0.02444203826578183</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1283,29 +1285,31 @@
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.02426956315935992</v>
+        <v>0.03093034457440681</v>
       </c>
       <c r="M23">
-        <v>8.460121672955298E-06</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N23">
-        <v>0.08655038452706303</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>1.25</v>
+      </c>
       <c r="C24" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>3.1402</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E24">
-        <v>0.04424001314794899</v>
+        <v>0.0258243975691024</v>
       </c>
       <c r="F24">
-        <v>0.01348878057726228</v>
+        <v>0.01328423841272897</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1314,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="I24">
-        <v>0.02955528885165684</v>
+        <v>0.003429104982033811</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1323,31 +1327,29 @@
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.03981601183315409</v>
+        <v>0.02324195781219216</v>
       </c>
       <c r="M24">
-        <v>0.0001277365618234034</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N24">
-        <v>0.2920534659721863</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1"/>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>4.251749999999999</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E25">
-        <v>0.02972438631976247</v>
+        <v>0.02646885187140006</v>
       </c>
       <c r="F25">
-        <v>0.01493943681214058</v>
+        <v>0.01173266285322722</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1356,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <v>0.01346038754896414</v>
+        <v>0.006689289862660354</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1365,29 +1367,29 @@
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.02675194768778623</v>
+        <v>0.02382196668426006</v>
       </c>
       <c r="M25">
-        <v>3.558138317295404E-05</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N25">
-        <v>0.04296880909577897</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1">
-        <v>4.087149999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="E26">
-        <v>0.02682664052645883</v>
+        <v>0.0158523016234433</v>
       </c>
       <c r="F26">
-        <v>0.01178266773731689</v>
+        <v>0.004857321646643212</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1396,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="I26">
-        <v>0.01399929663082312</v>
+        <v>0.007663564257675885</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1405,29 +1407,29 @@
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.02414397647381295</v>
+        <v>0.01426707146109897</v>
       </c>
       <c r="M26">
-        <v>3.868543216178824E-06</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N26">
-        <v>0.0566439770081625</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>3.9317</v>
+        <v>3.3176</v>
       </c>
       <c r="E27">
-        <v>0.01617178782034895</v>
+        <v>0.02600000256096978</v>
       </c>
       <c r="F27">
-        <v>0.003999285076279981</v>
+        <v>0.01247610792782889</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1436,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="I27">
-        <v>0.01181791769909838</v>
+        <v>0.004967100356817321</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1445,29 +1447,29 @@
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.01455460903831406</v>
+        <v>0.0234000023048728</v>
       </c>
       <c r="M27">
-        <v>3.890226306992868E-06</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N27">
-        <v>0.03632327193610326</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1">
-        <v>3.76115</v>
+        <v>3.1402</v>
       </c>
       <c r="E28">
-        <v>0.009669465520975015</v>
+        <v>0.03019021464028059</v>
       </c>
       <c r="F28">
-        <v>0.00370055460201162</v>
+        <v>0.007716110866641679</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1476,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="I28">
-        <v>0.005640811947536498</v>
+        <v>0.01718197471535435</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1485,29 +1487,31 @@
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.008702518968877514</v>
+        <v>0.02717119317625253</v>
       </c>
       <c r="M28">
-        <v>8.259083608933784E-06</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N28">
-        <v>0.0520207960511479</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>3.61995</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E29">
-        <v>0.01171840523627763</v>
+        <v>0.02661390135941376</v>
       </c>
       <c r="F29">
-        <v>0.004549258249605861</v>
+        <v>0.01549330395975312</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -1516,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>0.006765800160863649</v>
+        <v>0.0004944457655887032</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1525,29 +1529,29 @@
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.01054656471264987</v>
+        <v>0.02395251122347239</v>
       </c>
       <c r="M29">
-        <v>9.610593834297231E-06</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N29">
-        <v>0.03385954014544062</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>3.3176</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E30">
-        <v>0.02754779421025275</v>
+        <v>0.0277475947835569</v>
       </c>
       <c r="F30">
-        <v>0.009297353833245196</v>
+        <v>0.01243676226451151</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1556,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="I30">
-        <v>0.01742611738822596</v>
+        <v>0.006781023641423075</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1565,29 +1569,29 @@
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.02479301478922747</v>
+        <v>0.02497283530520121</v>
       </c>
       <c r="M30">
-        <v>8.460121672955298E-06</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N30">
-        <v>0.08655038452706303</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>3.1402</v>
+        <v>3.9317</v>
       </c>
       <c r="E31">
-        <v>0.03436704952711867</v>
+        <v>0.01654824745514503</v>
       </c>
       <c r="F31">
-        <v>0.005887228993862251</v>
+        <v>0.005883358283035052</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -1596,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>0.02795784640094912</v>
+        <v>0.006629761648922866</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1605,31 +1609,29 @@
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.03093034457440681</v>
+        <v>0.01489342270963053</v>
       </c>
       <c r="M31">
-        <v>0.0001277365618234034</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N31">
-        <v>0.2920534659721863</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1"/>
-      <c r="B32" s="1">
-        <v>1.25</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1">
-        <v>4.251749999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="E32">
-        <v>0.0258243975691024</v>
+        <v>0.02790089576681214</v>
       </c>
       <c r="F32">
-        <v>0.01328423841272897</v>
+        <v>0.01403741397355824</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1638,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>0.01136235057680626</v>
+        <v>0.004235858800717772</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -1647,29 +1649,29 @@
         <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.02324195781219216</v>
+        <v>0.02511080619013093</v>
       </c>
       <c r="M32">
-        <v>3.558138317295404E-05</v>
+        <v>8.460121672955298E-06</v>
       </c>
       <c r="N32">
-        <v>0.04296880909577897</v>
+        <v>0.08655038452706303</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
-        <v>4.087149999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="E33">
-        <v>0.02646885187140006</v>
+        <v>0.02992324170186151</v>
       </c>
       <c r="F33">
-        <v>0.01173266285322722</v>
+        <v>0.009242478718850339</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -1678,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="I33">
-        <v>0.01369594639828288</v>
+        <v>0.01434176772439419</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -1687,29 +1689,31 @@
         <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.02382196668426006</v>
+        <v>0.02693091753167536</v>
       </c>
       <c r="M33">
-        <v>3.868543216178824E-06</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N33">
-        <v>0.0566439770081625</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>1.75</v>
+      </c>
       <c r="C34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>3.9317</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="E34">
-        <v>0.0158523016234433</v>
+        <v>0.03107257424817652</v>
       </c>
       <c r="F34">
-        <v>0.004857321646643212</v>
+        <v>0.01744610877578788</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1718,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>0.01056431960084268</v>
+        <v>0.001660973944073624</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1727,29 +1731,29 @@
         <v>0.9</v>
       </c>
       <c r="L34">
-        <v>0.01426707146109897</v>
+        <v>0.02796531682335886</v>
       </c>
       <c r="M34">
-        <v>3.890226306992868E-06</v>
+        <v>3.558138317295404E-05</v>
       </c>
       <c r="N34">
-        <v>0.03632327193610326</v>
+        <v>0.04296880909577897</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>3.76115</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="E35">
-        <v>0.007507698780631431</v>
+        <v>0.02978313360978592</v>
       </c>
       <c r="F35">
-        <v>0.005153752782450405</v>
+        <v>0.01360584442296838</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -1758,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>0.001897003412874679</v>
+        <v>0.006845660095719654</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -1767,29 +1771,29 @@
         <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0.006756928902568288</v>
+        <v>0.02680482024880733</v>
       </c>
       <c r="M35">
-        <v>8.259083608933784E-06</v>
+        <v>3.868543216178824E-06</v>
       </c>
       <c r="N35">
-        <v>0.0520207960511479</v>
+        <v>0.0566439770081625</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
-        <v>3.61995</v>
+        <v>3.9317</v>
       </c>
       <c r="E36">
-        <v>0.01068355123767777</v>
+        <v>0.01931867125486035</v>
       </c>
       <c r="F36">
-        <v>0.007387549177416778</v>
+        <v>0.007019413723281589</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1798,7 +1802,7 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <v>0.002641006377949357</v>
+        <v>0.00748496131692783</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -1807,13 +1811,13 @@
         <v>0.9</v>
       </c>
       <c r="L36">
-        <v>0.009615196113909995</v>
+        <v>0.01738680412937431</v>
       </c>
       <c r="M36">
-        <v>9.610593834297231E-06</v>
+        <v>3.890226306992868E-06</v>
       </c>
       <c r="N36">
-        <v>0.03385954014544062</v>
+        <v>0.03632327193610326</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1826,10 +1830,10 @@
         <v>3.3176</v>
       </c>
       <c r="E37">
-        <v>0.02600000256096978</v>
+        <v>0.0307604042976614</v>
       </c>
       <c r="F37">
-        <v>0.01247610792782889</v>
+        <v>0.01246510147482404</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1838,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="I37">
-        <v>0.01241773660582616</v>
+        <v>0.00974605737140528</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -1847,7 +1851,7 @@
         <v>0.9</v>
       </c>
       <c r="L37">
-        <v>0.0234000023048728</v>
+        <v>0.02768436386789526</v>
       </c>
       <c r="M37">
         <v>8.460121672955298E-06</v>
@@ -1866,19 +1870,19 @@
         <v>3.1402</v>
       </c>
       <c r="E38">
-        <v>0.03019021464028059</v>
+        <v>0.03978984050251842</v>
       </c>
       <c r="F38">
-        <v>0.007716110866641679</v>
+        <v>0.009111122048725462</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0.02178997711938421</v>
+        <v>0.02906894976277481</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -1887,590 +1891,26 @@
         <v>0.9</v>
       </c>
       <c r="L38">
-        <v>0.02717119317625253</v>
+        <v>0.03581085645226657</v>
       </c>
       <c r="M38">
-        <v>0.0001277365618234034</v>
+        <v>0.000126338639126799</v>
       </c>
       <c r="N38">
-        <v>0.2920534659721863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E39">
-        <v>0.02661390135941376</v>
-      </c>
-      <c r="F39">
-        <v>0.01549330395975312</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0.009746928412196987</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0.9</v>
-      </c>
-      <c r="L39">
-        <v>0.02395251122347239</v>
-      </c>
-      <c r="M39">
-        <v>3.558138317295404E-05</v>
-      </c>
-      <c r="N39">
-        <v>0.04296880909577897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="E40">
-        <v>0.0277475947835569</v>
-      </c>
-      <c r="F40">
-        <v>0.01243676226451151</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>0.01420816296117725</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0.9</v>
-      </c>
-      <c r="L40">
-        <v>0.02497283530520121</v>
-      </c>
-      <c r="M40">
-        <v>3.868543216178824E-06</v>
-      </c>
-      <c r="N40">
-        <v>0.0566439770081625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.9317</v>
-      </c>
-      <c r="E41">
-        <v>0.01654824745514503</v>
-      </c>
-      <c r="F41">
-        <v>0.005883358283035052</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>0.0101432582251837</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0.9</v>
-      </c>
-      <c r="L41">
-        <v>0.01489342270963053</v>
-      </c>
-      <c r="M41">
-        <v>3.890226306992868E-06</v>
-      </c>
-      <c r="N41">
-        <v>0.03632327193610326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3.76115</v>
-      </c>
-      <c r="E42">
-        <v>0.007465519301775283</v>
-      </c>
-      <c r="F42">
-        <v>0.006721416357891073</v>
-      </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>0.0001481680014955231</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>0.9</v>
-      </c>
-      <c r="L42">
-        <v>0.006718967371597754</v>
-      </c>
-      <c r="M42">
-        <v>8.259083608933784E-06</v>
-      </c>
-      <c r="N42">
-        <v>0.0520207960511479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3.61995</v>
-      </c>
-      <c r="E43">
-        <v>0.01144805579968411</v>
-      </c>
-      <c r="F43">
-        <v>0.008388408177303507</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>0.002315913671424672</v>
-      </c>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.9</v>
-      </c>
-      <c r="L43">
-        <v>0.0103032502197157</v>
-      </c>
-      <c r="M43">
-        <v>9.610593834297231E-06</v>
-      </c>
-      <c r="N43">
-        <v>0.03385954014544062</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3.3176</v>
-      </c>
-      <c r="E44">
-        <v>0.02790089576681214</v>
-      </c>
-      <c r="F44">
-        <v>0.01403741397355824</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>0.0126188950808421</v>
-      </c>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0.9</v>
-      </c>
-      <c r="L44">
-        <v>0.02511080619013093</v>
-      </c>
-      <c r="M44">
-        <v>8.460121672955298E-06</v>
-      </c>
-      <c r="N44">
-        <v>0.08655038452706303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <v>9</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3.1402</v>
-      </c>
-      <c r="E45">
-        <v>0.02992324170186151</v>
-      </c>
-      <c r="F45">
-        <v>0.009242478718850339</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>0.01986130533754328</v>
-      </c>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0.9</v>
-      </c>
-      <c r="L45">
-        <v>0.02693091753167536</v>
-      </c>
-      <c r="M45">
-        <v>0.0001277365618234034</v>
-      </c>
-      <c r="N45">
-        <v>0.2920534659721863</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="E46">
-        <v>0.03107257424817652</v>
-      </c>
-      <c r="F46">
-        <v>0.01744610877578788</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>0.01207965669361094</v>
-      </c>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>0.9</v>
-      </c>
-      <c r="L46">
-        <v>0.02796531682335886</v>
-      </c>
-      <c r="M46">
-        <v>3.558138317295404E-05</v>
-      </c>
-      <c r="N46">
-        <v>0.04296880909577897</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="E47">
-        <v>0.02978313360978592</v>
-      </c>
-      <c r="F47">
-        <v>0.01360584442296838</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>0.01497096634046806</v>
-      </c>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>0.9</v>
-      </c>
-      <c r="L47">
-        <v>0.02680482024880733</v>
-      </c>
-      <c r="M47">
-        <v>3.868543216178824E-06</v>
-      </c>
-      <c r="N47">
-        <v>0.0566439770081625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3.9317</v>
-      </c>
-      <c r="E48">
-        <v>0.01931867125486035</v>
-      </c>
-      <c r="F48">
-        <v>0.007019413723281589</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>0.01167690151462481</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0.9</v>
-      </c>
-      <c r="L48">
-        <v>0.01738680412937431</v>
-      </c>
-      <c r="M48">
-        <v>3.890226306992868E-06</v>
-      </c>
-      <c r="N48">
-        <v>0.03632327193610326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.76115</v>
-      </c>
-      <c r="E49">
-        <v>0.01122556541081943</v>
-      </c>
-      <c r="F49">
-        <v>0.007895995269601308</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-      <c r="I49">
-        <v>0.002629494556618034</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0.9</v>
-      </c>
-      <c r="L49">
-        <v>0.01010300886973749</v>
-      </c>
-      <c r="M49">
-        <v>8.259083608933784E-06</v>
-      </c>
-      <c r="N49">
-        <v>0.0520207960511479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3.61995</v>
-      </c>
-      <c r="E50">
-        <v>0.0151285728645176</v>
-      </c>
-      <c r="F50">
-        <v>0.007572004010862568</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>0.006885219016997075</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0.9</v>
-      </c>
-      <c r="L50">
-        <v>0.01361571557806584</v>
-      </c>
-      <c r="M50">
-        <v>9.610593834297231E-06</v>
-      </c>
-      <c r="N50">
-        <v>0.03385954014544062</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3.3176</v>
-      </c>
-      <c r="E51">
-        <v>0.0307604042976614</v>
-      </c>
-      <c r="F51">
-        <v>0.01246510147482404</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>0.01719012065084659</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>0.9</v>
-      </c>
-      <c r="L51">
-        <v>0.02768436386789526</v>
-      </c>
-      <c r="M51">
-        <v>8.460121672955298E-06</v>
-      </c>
-      <c r="N51">
-        <v>0.08655038452706303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <v>9</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3.1402</v>
-      </c>
-      <c r="E52">
-        <v>0.03978984050251842</v>
-      </c>
-      <c r="F52">
-        <v>0.009111122048725462</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52">
-        <v>0.03232899614091564</v>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>0.9</v>
-      </c>
-      <c r="L52">
-        <v>0.03581085645226657</v>
-      </c>
-      <c r="M52">
-        <v>0.0001277365618234034</v>
-      </c>
-      <c r="N52">
-        <v>0.2920534659721863</v>
+        <v>1.200236735710003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A52"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="A4:A38"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
